--- a/testData/authorization_test_data.xlsx
+++ b/testData/authorization_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_authorization" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,14 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双人授权候选人(1/1/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双人授权候选人(6/6/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审批人个数6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审批人账号4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,18 +403,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双人授权候选人(0/0/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权名称重复的校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权名称重复!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,6 +508,22 @@
   </si>
   <si>
     <t>混合授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrsp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人授权候选人(1/1/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人授权候选人(5/5/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人授权候选人(0/0/5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1050,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1106,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1120,15 +1112,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1147,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1168,11 +1160,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1195,11 +1187,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1222,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -1230,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1249,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -1276,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -1489,10 +1481,10 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="2"/>
@@ -1525,7 +1517,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1720,7 +1712,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8"/>
@@ -1738,21 +1730,21 @@
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1812,28 +1804,28 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1845,7 +1837,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1859,7 +1851,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -1891,7 +1883,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1916,7 +1908,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1941,7 +1933,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1966,7 +1958,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1991,7 +1983,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2003,7 +1995,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1" t="s">
@@ -2041,7 +2033,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -2124,7 +2116,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2142,7 +2134,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2160,7 +2152,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2178,7 +2170,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2196,7 +2188,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2214,7 +2206,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2232,7 +2224,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2280,16 +2272,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>46</v>
@@ -2300,61 +2292,61 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2362,30 +2354,30 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2398,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="C8 E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2425,16 +2417,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -2442,35 +2434,35 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2478,19 +2470,19 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2498,10 +2490,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8">
